--- a/data/trans_dic/P69$problemSueño-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P69$problemSueño-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2142225817577297</v>
+        <v>0.2031175062366565</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2675862787667869</v>
+        <v>0.2672878565414016</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3155401001670012</v>
+        <v>0.308604998159537</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1619325816757202</v>
+        <v>0.1660756051241548</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1557998808146747</v>
+        <v>0.1486298020969882</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1835073993905589</v>
+        <v>0.1824253653266313</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.247848895216052</v>
+        <v>0.2593379632509887</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2647872953897396</v>
+        <v>0.2500664114303853</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2103082151610025</v>
+        <v>0.2078429708095192</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2596617044185348</v>
+        <v>0.253875388227811</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3240463390270067</v>
+        <v>0.3279970801704001</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2480713553520664</v>
+        <v>0.2360297707328316</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4356870109644918</v>
+        <v>0.4446647062939293</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5126559117958531</v>
+        <v>0.5215541852058183</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6108971294377149</v>
+        <v>0.6197895891570032</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4467059835634156</v>
+        <v>0.4476059945706853</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4084736674816224</v>
+        <v>0.4073067341284938</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4756438253402566</v>
+        <v>0.4657668011357249</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5409196076552526</v>
+        <v>0.5498339621910727</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4723859905590527</v>
+        <v>0.4787970079246053</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3918965374841548</v>
+        <v>0.3777227412071588</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4487749374029649</v>
+        <v>0.4605267707026923</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5532854594440544</v>
+        <v>0.5470958419535006</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4297604186945008</v>
+        <v>0.4194920401110457</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.3162330544912584</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1917011445723715</v>
+        <v>0.1917011445723716</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.2270915007439628</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09886863289375168</v>
+        <v>0.1003581039219773</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1362352054019548</v>
+        <v>0.1281587233800286</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.145779088580868</v>
+        <v>0.15654398344478</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09247049456998145</v>
+        <v>0.08781973050467654</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1169207966208184</v>
+        <v>0.1095934028066511</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0912097726211382</v>
+        <v>0.09351867599274664</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1283548240936754</v>
+        <v>0.1253617462553423</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.204271469737121</v>
+        <v>0.189804312432419</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1276136547157551</v>
+        <v>0.1305887021562178</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1523347038941515</v>
+        <v>0.1495227811988647</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1834088287136807</v>
+        <v>0.1919706481274085</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1740956020128712</v>
+        <v>0.1617803412751071</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3689489340898832</v>
+        <v>0.3496578320239348</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4548168713529512</v>
+        <v>0.4242070576895632</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5120130859693096</v>
+        <v>0.5304471732424035</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3364583848725343</v>
+        <v>0.3691025220782192</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3787405813061077</v>
+        <v>0.3731739405177652</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.423163534673775</v>
+        <v>0.4462731519685129</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4400259058966859</v>
+        <v>0.4326038089716225</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4342618000218465</v>
+        <v>0.4445974963426779</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3144889621543781</v>
+        <v>0.3107410464336412</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.378218040512466</v>
+        <v>0.3686485834893813</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4221278586726199</v>
+        <v>0.4325794204526669</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3523601379939447</v>
+        <v>0.3548071472987421</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.3813809749937822</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2989663681779246</v>
+        <v>0.2989663681779248</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2638315468804618</v>
@@ -969,7 +969,7 @@
         <v>0.2230856702694329</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.230305134058007</v>
+        <v>0.2303051340580069</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2020579078975118</v>
+        <v>0.197911034258706</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1435703454895509</v>
+        <v>0.1309474296341743</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.107226070901016</v>
+        <v>0.1102110539193671</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1004400327147694</v>
+        <v>0.09819297847904991</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.136288610098731</v>
+        <v>0.125970834591414</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1194711385430501</v>
+        <v>0.1214138549479553</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.156240617334532</v>
+        <v>0.1476830864505112</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1843880371457636</v>
+        <v>0.1766102248109427</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1582192204549122</v>
+        <v>0.1607208790268226</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1293939000806236</v>
+        <v>0.1359146672988911</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1393752606555851</v>
+        <v>0.1431473691752012</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.389483721274935</v>
+        <v>0.3905390970903903</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3285720059063533</v>
+        <v>0.3240385243932643</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3277754713140735</v>
+        <v>0.3152857994720599</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3614600352934974</v>
+        <v>0.3838242783053838</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3900395946686794</v>
+        <v>0.4220946168802651</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.455518750129218</v>
+        <v>0.452769516888279</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7130761557690161</v>
+        <v>0.7255511805313755</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4820412185262087</v>
+        <v>0.4827060876751706</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3584554309512333</v>
+        <v>0.3544781013354315</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.322215888336134</v>
+        <v>0.3231585483280132</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.345858518804978</v>
+        <v>0.3357013929472868</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3520201379676267</v>
+        <v>0.3639389230992998</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1526786010795083</v>
+        <v>0.1476466313246612</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1522562792835413</v>
+        <v>0.1539799697739291</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1618911037620746</v>
+        <v>0.1691404363510261</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1698197264100551</v>
+        <v>0.1726155237350925</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1601276937037753</v>
+        <v>0.1575746046167056</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.190313324162163</v>
+        <v>0.197342911283398</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2374079791485331</v>
+        <v>0.231341345756769</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1875038501769052</v>
+        <v>0.1888024635918989</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1633989049853671</v>
+        <v>0.1670700498625212</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1928928101423056</v>
+        <v>0.1897474594854949</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2173558625850847</v>
+        <v>0.2199283137151574</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1949463048109202</v>
+        <v>0.1917525471826987</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2695546780560872</v>
+        <v>0.2651013119255282</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.317567358097116</v>
+        <v>0.317036338849185</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3086585735469006</v>
+        <v>0.314812383651039</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3312393518059659</v>
+        <v>0.3349529965580138</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4041441542384208</v>
+        <v>0.400157934765716</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4162480768385173</v>
+        <v>0.4236531484556437</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4615155141499569</v>
+        <v>0.4441659872461238</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3293418233761644</v>
+        <v>0.3284572450436411</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2719244041812811</v>
+        <v>0.2729621730159665</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.318469794309314</v>
+        <v>0.3247235317183785</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3399570284219578</v>
+        <v>0.3470859002981412</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3014955345357383</v>
+        <v>0.3056378323887305</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05330997828006495</v>
+        <v>0.05529846745786424</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1256425778750138</v>
+        <v>0.1378871883093699</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03533184930677057</v>
+        <v>0.0362046639979708</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.008709206184527264</v>
+        <v>0.009309568524455816</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.09066560015223776</v>
+        <v>0.09311814349254732</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1882067367209906</v>
+        <v>0.1864573999293558</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1359315725191632</v>
+        <v>0.148799094437475</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1664801376760127</v>
+        <v>0.1700969701914907</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.09369143714693511</v>
+        <v>0.09139260784684858</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2086219206551028</v>
+        <v>0.1914020926460578</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0979643642963222</v>
+        <v>0.1018444477624051</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1181168732795891</v>
+        <v>0.1179408395993436</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2329275283728705</v>
+        <v>0.2379572793289682</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4249892892392475</v>
+        <v>0.4263984472845029</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1986865922664431</v>
+        <v>0.1920329982033378</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1264335570450046</v>
+        <v>0.1449005968444819</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2732175494162013</v>
+        <v>0.288711215473122</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4976387301090933</v>
+        <v>0.5078199044998016</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3903617116051264</v>
+        <v>0.3881209714368648</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3182035252130209</v>
+        <v>0.3105110328141788</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2205552830906948</v>
+        <v>0.2201419695349866</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4235044438718316</v>
+        <v>0.4161761772020126</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.238580231164916</v>
+        <v>0.2449982438485362</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2211467974745508</v>
+        <v>0.2198429946743468</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1894013191336443</v>
+        <v>0.1873924258736802</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.212914236945133</v>
+        <v>0.2132797008437958</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1946727549170868</v>
+        <v>0.1941660720578201</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1568703691854462</v>
+        <v>0.1581318524584129</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1619313647916679</v>
+        <v>0.166400985339355</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2335090934262103</v>
+        <v>0.2320380269767979</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.259377463026892</v>
+        <v>0.2617988119915161</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.237301854374647</v>
+        <v>0.2379562164147079</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1904501091331066</v>
+        <v>0.1910048197338785</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2355052811714541</v>
+        <v>0.2355155119513595</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2332539957566478</v>
+        <v>0.237417929821642</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2065969611620682</v>
+        <v>0.2083658948879772</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2691109502259632</v>
+        <v>0.2680494230285334</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3119445969682927</v>
+        <v>0.3135876314678778</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.294735158591546</v>
+        <v>0.2971918185816532</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2533460967370677</v>
+        <v>0.2574734161691136</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2746614329706836</v>
+        <v>0.2743791551200981</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3578815237715143</v>
+        <v>0.3603438400527519</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3913119486766963</v>
+        <v>0.3878154785327563</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3222732091345539</v>
+        <v>0.3244973302358711</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2576141302133736</v>
+        <v>0.2555731421493981</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3109555012018569</v>
+        <v>0.3145309897047655</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3092089112427381</v>
+        <v>0.3176106768921249</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2724958819763453</v>
+        <v>0.2742116926556294</v>
       </c>
     </row>
     <row r="22">
@@ -1737,40 +1737,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>13942</v>
+        <v>13219</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>14840</v>
+        <v>14823</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>14802</v>
+        <v>14477</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>8285</v>
+        <v>8497</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7268</v>
+        <v>6934</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8050</v>
+        <v>8003</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>11385</v>
+        <v>11912</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>16190</v>
+        <v>15290</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>23498</v>
+        <v>23223</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>25792</v>
+        <v>25217</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>30086</v>
+        <v>30453</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>27860</v>
+        <v>26508</v>
       </c>
     </row>
     <row r="7">
@@ -1781,40 +1781,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>28356</v>
+        <v>28940</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>28431</v>
+        <v>28924</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>28658</v>
+        <v>29075</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>22855</v>
+        <v>22901</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>19055</v>
+        <v>19001</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>20866</v>
+        <v>20433</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>24847</v>
+        <v>25256</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>28883</v>
+        <v>29275</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>43788</v>
+        <v>42204</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>44576</v>
+        <v>45743</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>51370</v>
+        <v>50795</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>48265</v>
+        <v>47111</v>
       </c>
     </row>
     <row r="8">
@@ -1917,40 +1917,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4188</v>
+        <v>4251</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4951</v>
+        <v>4658</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4408</v>
+        <v>4733</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>4814</v>
+        <v>4572</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4866</v>
+        <v>4561</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2427</v>
+        <v>2489</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3773</v>
+        <v>3685</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>9285</v>
+        <v>8627</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>10716</v>
+        <v>10966</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>9590</v>
+        <v>9413</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>10937</v>
+        <v>11447</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>16977</v>
+        <v>15776</v>
       </c>
     </row>
     <row r="11">
@@ -1961,40 +1961,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>15627</v>
+        <v>14810</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>16529</v>
+        <v>15417</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>15481</v>
+        <v>16039</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>17516</v>
+        <v>19215</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>15762</v>
+        <v>15530</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>11262</v>
+        <v>11877</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12934</v>
+        <v>12716</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>19739</v>
+        <v>20209</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>26408</v>
+        <v>26093</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>23811</v>
+        <v>23209</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>25172</v>
+        <v>25795</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>34360</v>
+        <v>34598</v>
       </c>
     </row>
     <row r="12">
@@ -2097,40 +2097,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>20212</v>
+        <v>19797</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>11248</v>
+        <v>10259</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7072</v>
+        <v>7269</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>6176</v>
+        <v>6037</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4596</v>
+        <v>4248</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1143</v>
+        <v>1162</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3196</v>
+        <v>3021</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>21447</v>
+        <v>20543</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>17731</v>
+        <v>18011</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>9772</v>
+        <v>10265</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>11421</v>
+        <v>11730</v>
       </c>
     </row>
     <row r="15">
@@ -2141,40 +2141,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>38960</v>
+        <v>39066</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>25741</v>
+        <v>25386</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21619</v>
+        <v>20795</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>22224</v>
+        <v>23599</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6353</v>
+        <v>6875</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>15361</v>
+        <v>15268</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>6823</v>
+        <v>6943</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>9861</v>
+        <v>9875</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>41694</v>
+        <v>41231</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>36108</v>
+        <v>36214</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>26121</v>
+        <v>25354</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>28845</v>
+        <v>29822</v>
       </c>
     </row>
     <row r="16">
@@ -2277,40 +2277,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>30537</v>
+        <v>29530</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>17674</v>
+        <v>17874</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>22158</v>
+        <v>23150</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>25759</v>
+        <v>26183</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7998</v>
+        <v>7870</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>12744</v>
+        <v>13214</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>19961</v>
+        <v>19450</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>21225</v>
+        <v>21372</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>40842</v>
+        <v>41760</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>35307</v>
+        <v>34732</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>48024</v>
+        <v>48592</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>51638</v>
+        <v>50792</v>
       </c>
     </row>
     <row r="19">
@@ -2321,40 +2321,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>53913</v>
+        <v>53022</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>36863</v>
+        <v>36801</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>42246</v>
+        <v>43088</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>50244</v>
+        <v>50808</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>20185</v>
+        <v>19986</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>27873</v>
+        <v>28369</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>38803</v>
+        <v>37344</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>37280</v>
+        <v>37180</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>67969</v>
+        <v>68228</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>58293</v>
+        <v>59438</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>75112</v>
+        <v>76687</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>79861</v>
+        <v>80958</v>
       </c>
     </row>
     <row r="20">
@@ -2457,40 +2457,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3412</v>
+        <v>3540</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5026</v>
+        <v>5516</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2408</v>
+        <v>2467</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>566</v>
+        <v>605</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>5950</v>
+        <v>6111</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>8219</v>
+        <v>8142</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>6433</v>
+        <v>7042</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>16667</v>
+        <v>17029</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>12145</v>
+        <v>11847</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>17456</v>
+        <v>16015</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>11312</v>
+        <v>11760</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>19496</v>
+        <v>19467</v>
       </c>
     </row>
     <row r="23">
@@ -2501,40 +2501,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>14909</v>
+        <v>15231</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>17001</v>
+        <v>17058</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>13540</v>
+        <v>13087</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>8212</v>
+        <v>9411</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>17929</v>
+        <v>18946</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>21731</v>
+        <v>22175</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>18473</v>
+        <v>18367</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>31856</v>
+        <v>31086</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>28591</v>
+        <v>28537</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>35435</v>
+        <v>34822</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>27550</v>
+        <v>28291</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>36502</v>
+        <v>36287</v>
       </c>
     </row>
     <row r="24">
@@ -2637,40 +2637,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>89300</v>
+        <v>88353</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>69458</v>
+        <v>69577</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>67770</v>
+        <v>67593</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>59821</v>
+        <v>60302</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>35644</v>
+        <v>36628</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>50166</v>
+        <v>49850</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>56103</v>
+        <v>56627</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>80769</v>
+        <v>80991</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>131716</v>
+        <v>132100</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>127422</v>
+        <v>127428</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>131653</v>
+        <v>134003</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>149102</v>
+        <v>150378</v>
       </c>
     </row>
     <row r="27">
@@ -2681,40 +2681,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>126882</v>
+        <v>126381</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>101764</v>
+        <v>102300</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>102604</v>
+        <v>103459</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>96612</v>
+        <v>98185</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>60459</v>
+        <v>60397</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>76885</v>
+        <v>77414</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>84640</v>
+        <v>83884</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>109690</v>
+        <v>110447</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>178167</v>
+        <v>176756</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>168246</v>
+        <v>170180</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>174523</v>
+        <v>179266</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>196661</v>
+        <v>197900</v>
       </c>
     </row>
     <row r="28">
